--- a/VPA_Reinvent_Tasks.xlsx
+++ b/VPA_Reinvent_Tasks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>Item</t>
   </si>
@@ -264,12 +264,36 @@
   <si>
     <t>Athena Step 2 Partial</t>
   </si>
+  <si>
+    <t>https://github.com/voicehacks/setup-local-recommendations/blob/master/speech-assets/InteractionModel.json</t>
+  </si>
+  <si>
+    <t>50% complete</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Split out Athena from Main README</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done form Alexa</t>
+  </si>
+  <si>
+    <t>Need to validate</t>
+  </si>
+  <si>
+    <t>20% completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +305,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,8 +333,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +627,7 @@
     <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -611,19 +643,25 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -637,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -651,7 +689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -662,10 +700,13 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -679,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -693,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -707,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -718,10 +759,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -735,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -749,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -763,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -777,7 +821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -788,10 +832,13 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -802,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -817,6 +864,9 @@
       </c>
       <c r="E16" t="s">
         <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,8 +904,8 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>25</v>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -953,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,7 +1131,7 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>

--- a/VPA_Reinvent_Tasks.xlsx
+++ b/VPA_Reinvent_Tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="-35960" yWindow="3700" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Item</t>
   </si>
@@ -62,9 +62,6 @@
     <t>README</t>
   </si>
   <si>
-    <t>Skill_template.yaml</t>
-  </si>
-  <si>
     <t>Fix Role for Alexa Lambda to access dynamodb</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Add Slot name needs to be Metrics add environment variable</t>
-  </si>
-  <si>
-    <t>Add environment variable for metric intent. Default: WhatsMyMetricIntent</t>
   </si>
   <si>
     <t>Criticality</t>
@@ -268,9 +262,6 @@
     <t>https://github.com/voicehacks/setup-local-recommendations/blob/master/speech-assets/InteractionModel.json</t>
   </si>
   <si>
-    <t>50% complete</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -280,13 +271,13 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Done form Alexa</t>
-  </si>
-  <si>
-    <t>Need to validate</t>
-  </si>
-  <si>
-    <t>20% completed</t>
+    <t>Done form Alexa and main readme</t>
+  </si>
+  <si>
+    <t>Skill_template_partial.yaml</t>
+  </si>
+  <si>
+    <t>Add environment variable for metric intent. Default: WhatsMyMetric</t>
   </si>
 </sst>
 </file>
@@ -341,7 +332,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -644,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,27 +688,27 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -697,514 +719,521 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.75</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VPA_Reinvent_Tasks.xlsx
+++ b/VPA_Reinvent_Tasks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awwestri/Documents/vpa/Github/voice-powered-analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chadneal/code/voice-powered-analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35960" yWindow="3700" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="2340" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>Item</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Add environment variable for metric intent. Default: WhatsMyMetric</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -638,13 +641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -694,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -708,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">

--- a/VPA_Reinvent_Tasks.xlsx
+++ b/VPA_Reinvent_Tasks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>Item</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>fix bucket name in cfn</t>
+  </si>
+  <si>
+    <t>explain cfn inputs and add outputs</t>
+  </si>
+  <si>
+    <t>fixed by adding more context to main readme and seperating each section</t>
   </si>
 </sst>
 </file>
@@ -335,7 +344,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -641,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -798,7 +867,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -888,7 +957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>21</v>
       </c>
@@ -899,7 +968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -910,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -927,7 +996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -938,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -952,10 +1021,10 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -969,7 +1038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -980,10 +1049,10 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -994,10 +1063,10 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1008,10 +1077,13 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1025,7 +1097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1039,7 +1111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1050,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1064,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1081,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>51</v>
       </c>
@@ -1089,10 +1161,13 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1106,7 +1181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>55</v>
       </c>
@@ -1114,10 +1189,13 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1128,10 +1206,10 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>57</v>
       </c>
@@ -1142,7 +1220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1156,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1170,7 +1248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>62</v>
       </c>
@@ -1181,7 +1259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1195,7 +1273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1206,10 +1284,10 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1225,15 +1303,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E1:E1048576 F25 F31 F33">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
